--- a/testData/Headers.xlsx
+++ b/testData/Headers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chavezmunoz.a/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chavezmunoz.a/Documents/Classes/CapstoneC2023/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DEAB3F-101C-BA43-9794-48603E09B3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7377E4B-17B8-7D49-982D-6844AA1A42A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{E9678E3D-6B13-0047-9198-B64F92A85DB1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13780" activeTab="2" xr2:uid="{E9678E3D-6B13-0047-9198-B64F92A85DB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="1" r:id="rId1"/>
@@ -70,12 +70,39 @@
         </r>
       </text>
     </comment>
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{F86B84F9-689B-A944-81DE-D9A1194CE772}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rakasiwi, Tasya:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0: Unknown
+1: No known
+2: Clotting disorder
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="99">
   <si>
     <t>Record ID</t>
   </si>
@@ -279,13 +306,106 @@
   </si>
   <si>
     <t>Event Type</t>
+  </si>
+  <si>
+    <t>Date of TEG Collection</t>
+  </si>
+  <si>
+    <t>Event Time Period</t>
+  </si>
+  <si>
+    <t>Did the event require a re-intervention?</t>
+  </si>
+  <si>
+    <t>Date of Reintervention</t>
+  </si>
+  <si>
+    <t>Re-intervention Type (choice=Thrombolysis)</t>
+  </si>
+  <si>
+    <t>Re-intervention Type (choice=Thrombectomy)</t>
+  </si>
+  <si>
+    <t>Re-intervention Type (choice=Bypass Revision)</t>
+  </si>
+  <si>
+    <t>Re-intervention Type (choice=New Bypass)</t>
+  </si>
+  <si>
+    <t>Re-intervention Type (choice=Irrigation &amp; debridement)</t>
+  </si>
+  <si>
+    <t>Re-intervention Type (choice=Amputation revision)</t>
+  </si>
+  <si>
+    <t>Re-intervention Type (choice=Amputation)</t>
+  </si>
+  <si>
+    <t>Re-intervention Type (choice=New stent)</t>
+  </si>
+  <si>
+    <t>Re-intervention Type (choice=Angioplasty of in-stent/bypass stenosis)</t>
+  </si>
+  <si>
+    <t>Amputation Level (choice=Toe)</t>
+  </si>
+  <si>
+    <t>Amputation Level (choice=TMA)</t>
+  </si>
+  <si>
+    <t>Amputation Level (choice=BKA)</t>
+  </si>
+  <si>
+    <t>Amputation Level (choice=AKA)</t>
+  </si>
+  <si>
+    <t>Reason for Amputation (choice=Thrombosis)</t>
+  </si>
+  <si>
+    <t>Reason for Amputation (choice=Infection)</t>
+  </si>
+  <si>
+    <t>Reason for Amputation (choice=Unknown)</t>
+  </si>
+  <si>
+    <t>Reason for Amputation (choice=non healing wound)</t>
+  </si>
+  <si>
+    <t>Reason for Amputation (choice=Pain)</t>
+  </si>
+  <si>
+    <t>Is death related to intervention?</t>
+  </si>
+  <si>
+    <t>Cause of Death</t>
+  </si>
+  <si>
+    <t>Was the reintervention successful in restoring patency?</t>
+  </si>
+  <si>
+    <t>Are there any sign of thrombosis or impending thrombosis? (select all that apply) (choice=ABI drop of 0.2 from baseline on the same leg that had the intervention during enrollment)</t>
+  </si>
+  <si>
+    <t>Are there any sign of thrombosis or impending thrombosis? (select all that apply) (choice=Toe pressure drop of at least 10 mmHg or greater)</t>
+  </si>
+  <si>
+    <t>Are there any sign of thrombosis or impending thrombosis? (select all that apply) (choice=Stent thrombosis noted on sonography)</t>
+  </si>
+  <si>
+    <t>Are there any sign of thrombosis or impending thrombosis? (select all that apply) (choice=PSV increase of at least 10 cm/s or greater)</t>
+  </si>
+  <si>
+    <t>Are there any sign of thrombosis or impending thrombosis? (select all that apply) (choice=None of the above)</t>
+  </si>
+  <si>
+    <t>Date of last surgical intervention If this is patient's first event/reintervention, then report the surgical date entered in Procedure form. If this is not patient's first event/reintervention, then report the date of the latest intervention</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -332,13 +452,27 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -353,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -381,6 +515,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,7 +842,7 @@
   <dimension ref="A1:AD776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -799,9 +943,97 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+    <row r="3" spans="1:30" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E4" s="3"/>
@@ -9191,15 +9423,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D92B27B-57E8-2845-9B5B-86EA2741E9FE}">
-  <dimension ref="A1:AJ1"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9306,6 +9538,119 @@
         <v>34</v>
       </c>
       <c r="AJ1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK4" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9316,15 +9661,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EADA80-F733-7C46-88DE-5FC378E0728E}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9337,6 +9682,111 @@
       <c r="D1" t="s">
         <v>67</v>
       </c>
+    </row>
+    <row r="4" spans="1:35" s="18" customFormat="1" ht="380" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="V4" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="W4" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y4" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA4" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB4" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC4" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD4" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE4" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF4" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG4" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH4" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI4" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testData/Headers.xlsx
+++ b/testData/Headers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chavezmunoz.a/Documents/Classes/CapstoneC2023/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7377E4B-17B8-7D49-982D-6844AA1A42A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58291F56-4DF9-F441-AAE2-2822A8FECAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13780" activeTab="2" xr2:uid="{E9678E3D-6B13-0047-9198-B64F92A85DB1}"/>
   </bookViews>

--- a/testData/Headers.xlsx
+++ b/testData/Headers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chavezmunoz.a/Documents/Classes/CapstoneC2023/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58291F56-4DF9-F441-AAE2-2822A8FECAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33026EF-FCC0-764E-B542-C57A33CEBDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13780" activeTab="2" xr2:uid="{E9678E3D-6B13-0047-9198-B64F92A85DB1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13780" xr2:uid="{E9678E3D-6B13-0047-9198-B64F92A85DB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="1" r:id="rId1"/>
@@ -841,7 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277E53FF-9C48-0E42-92C4-C58471F33D22}">
   <dimension ref="A1:AD776"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -9426,7 +9426,7 @@
   <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9663,7 +9663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EADA80-F733-7C46-88DE-5FC378E0728E}">
   <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
